--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153850.6311743527</v>
+        <v>151190.1924291541</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12534994.33415068</v>
+        <v>12534994.33415067</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.8936096989633</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>74.72087113685691</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.533183649868</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.682695777305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>138.6784730325826</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>154.7864033825331</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>258.4126571367872</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
@@ -914,7 +914,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>364.7762623527684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>6.667833100712885</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.4024231398123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>314.0872688685176</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824707</v>
+        <v>92.38912089824699</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979419</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>202.5280174556211</v>
+        <v>209.6875146996641</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1006119508617</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.704661281745</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444707</v>
+        <v>96.40754664444705</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237113001</v>
+        <v>32.97111237112997</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020535</v>
+        <v>141.2421419020534</v>
       </c>
       <c r="T9" t="n">
         <v>193.5589894182124</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.1554144409374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.04884247479374</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.6170176401751</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0114037757904</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901465</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.0721924556109</v>
       </c>
       <c r="T10" t="n">
         <v>222.0750257228877</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>239.3053922022886</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184549</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>40.05224236575069</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>77.96206579663212</v>
       </c>
       <c r="G13" t="n">
-        <v>105.5089280640934</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>73.93222849083736</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856627</v>
+        <v>41.74133133758817</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569551</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>22.65115569188687</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>115.4764219077125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>247.6310136071097</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550206</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.2078024559165</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>71.79687029691078</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.79687029691087</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206847</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756247</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370325</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.799772605714602</v>
       </c>
       <c r="I46" t="n">
-        <v>41.02686156550286</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1203.962417599551</v>
+        <v>1779.954571929384</v>
       </c>
       <c r="C2" t="n">
-        <v>834.9999006591394</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="D2" t="n">
-        <v>476.7342020523889</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E2" t="n">
-        <v>476.7342020523889</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F2" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961286</v>
@@ -4331,22 +4331,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L2" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M2" t="n">
-        <v>1596.051731657506</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N2" t="n">
-        <v>1790.385944549488</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866448</v>
+        <v>2138.506086713905</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2567.8211330532</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4358,22 +4358,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.291386382223</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.522731112109</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.056972851029</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1324.056972851029</v>
+        <v>2166.554411993505</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>500.7885757023184</v>
+        <v>157.1026308627118</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.150115568437</v>
+        <v>661.4641707288304</v>
       </c>
       <c r="M3" t="n">
-        <v>1184.647451923042</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686616</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439339</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5908670375232</v>
+        <v>493.9247758272355</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5908670375232</v>
+        <v>353.8455101377581</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5908670375232</v>
+        <v>353.8455101377581</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5908670375232</v>
+        <v>353.8455101377581</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961286</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T4" t="n">
-        <v>827.0064043113226</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U4" t="n">
-        <v>670.6565019047235</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V4" t="n">
-        <v>670.6565019047235</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="W4" t="n">
-        <v>381.2393318677629</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="X4" t="n">
-        <v>381.2393318677629</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.2393318677629</v>
+        <v>493.9247758272355</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1641.878503426931</v>
+        <v>1793.088653732425</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.915986486519</v>
+        <v>1793.088653732425</v>
       </c>
       <c r="D5" t="n">
-        <v>914.6502878797686</v>
+        <v>1434.822955125675</v>
       </c>
       <c r="E5" t="n">
-        <v>914.6502878797686</v>
+        <v>1049.034702527431</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961286</v>
@@ -4568,22 +4568,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>507.3197691032044</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>1060.133027349404</v>
       </c>
       <c r="M5" t="n">
-        <v>1384.320602645002</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.654815536984</v>
+        <v>2319.158506392562</v>
       </c>
       <c r="O5" t="n">
-        <v>2125.816020304062</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2555.131066643356</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V5" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W5" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.339374490333</v>
+        <v>1793.088653732425</v>
       </c>
       <c r="Y5" t="n">
-        <v>1641.878503426931</v>
+        <v>1793.088653732425</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>376.1975890755595</v>
       </c>
       <c r="M6" t="n">
-        <v>1527.036213178646</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N6" t="n">
-        <v>2179.210092481355</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O6" t="n">
-        <v>2338.722405150116</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>522.8598833939393</v>
+        <v>633.00546329604</v>
       </c>
       <c r="C7" t="n">
-        <v>522.8598833939393</v>
+        <v>633.00546329604</v>
       </c>
       <c r="D7" t="n">
-        <v>372.7432439816035</v>
+        <v>633.00546329604</v>
       </c>
       <c r="E7" t="n">
-        <v>224.8301503992104</v>
+        <v>485.0923697136469</v>
       </c>
       <c r="F7" t="n">
-        <v>224.8301503992104</v>
+        <v>338.2024222157365</v>
       </c>
       <c r="G7" t="n">
-        <v>224.8301503992104</v>
+        <v>338.2024222157365</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897548</v>
+        <v>183.9477791155016</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897548</v>
+        <v>59.4361044898279</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961286</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>845.195316251363</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U7" t="n">
-        <v>845.195316251363</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V7" t="n">
-        <v>845.195316251363</v>
+        <v>633.00546329604</v>
       </c>
       <c r="W7" t="n">
-        <v>845.195316251363</v>
+        <v>633.00546329604</v>
       </c>
       <c r="X7" t="n">
-        <v>617.2057653533457</v>
+        <v>633.00546329604</v>
       </c>
       <c r="Y7" t="n">
-        <v>522.8598833939393</v>
+        <v>633.00546329604</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.678630462432</v>
+        <v>1659.63531634005</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.678630462432</v>
+        <v>1290.672799399639</v>
       </c>
       <c r="D8" t="n">
-        <v>973.4129318556816</v>
+        <v>1290.672799399639</v>
       </c>
       <c r="E8" t="n">
         <v>973.4129318556816</v>
       </c>
       <c r="F8" t="n">
-        <v>562.4270270660741</v>
+        <v>562.4270270660739</v>
       </c>
       <c r="G8" t="n">
-        <v>146.0232638812766</v>
+        <v>146.0232638812765</v>
       </c>
       <c r="H8" t="n">
-        <v>146.0232638812766</v>
+        <v>146.0232638812765</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>298.2407414888377</v>
+        <v>298.2407414888379</v>
       </c>
       <c r="K8" t="n">
-        <v>786.9860892057729</v>
+        <v>603.0185294661122</v>
       </c>
       <c r="L8" t="n">
-        <v>1049.978484831553</v>
+        <v>848.1423762661971</v>
       </c>
       <c r="M8" t="n">
-        <v>1354.395432149617</v>
+        <v>1152.559323584262</v>
       </c>
       <c r="N8" t="n">
-        <v>1668.351972312241</v>
+        <v>1466.515863746885</v>
       </c>
       <c r="O8" t="n">
-        <v>2320.52585161495</v>
+        <v>1749.640860615671</v>
       </c>
       <c r="P8" t="n">
-        <v>2527.665485255197</v>
+        <v>2275.361215345687</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2592.933547824439</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.418012841308</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2289.84425783563</v>
+        <v>2423.240406576942</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.207276067083</v>
+        <v>2423.240406576942</v>
       </c>
       <c r="V8" t="n">
-        <v>1705.144388723512</v>
+        <v>2423.240406576942</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.144388723512</v>
+        <v>2423.240406576942</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.678630462432</v>
+        <v>2049.774648315862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.678630462432</v>
+        <v>1659.63531634005</v>
       </c>
     </row>
     <row r="9">
@@ -4857,58 +4857,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.6213010538164</v>
+        <v>949.6213010538162</v>
       </c>
       <c r="C9" t="n">
-        <v>775.1682717726894</v>
+        <v>775.1682717726892</v>
       </c>
       <c r="D9" t="n">
-        <v>626.2338621114382</v>
+        <v>626.2338621114379</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059826</v>
+        <v>466.9964071059825</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328675</v>
+        <v>320.4618491328674</v>
       </c>
       <c r="G9" t="n">
         <v>183.3864336967614</v>
       </c>
       <c r="H9" t="n">
-        <v>86.0050734498452</v>
+        <v>86.00507344984516</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>80.41925070638513</v>
+        <v>205.24937569339</v>
       </c>
       <c r="K9" t="n">
-        <v>205.9491183061555</v>
+        <v>592.5998279356133</v>
       </c>
       <c r="L9" t="n">
-        <v>421.0620577970415</v>
+        <v>1174.844709276924</v>
       </c>
       <c r="M9" t="n">
-        <v>691.4455801333015</v>
+        <v>1598.644667287484</v>
       </c>
       <c r="N9" t="n">
-        <v>1183.812204898742</v>
+        <v>1890.593081824452</v>
       </c>
       <c r="O9" t="n">
-        <v>1818.591868332906</v>
+        <v>2135.449049174654</v>
       </c>
       <c r="P9" t="n">
-        <v>2311.055443725103</v>
+        <v>2312.634483613314</v>
       </c>
       <c r="Q9" t="n">
-        <v>2587.556532757877</v>
+        <v>2589.135572646087</v>
       </c>
       <c r="R9" t="n">
-        <v>2589.135572646088</v>
+        <v>2589.135572646087</v>
       </c>
       <c r="S9" t="n">
-        <v>2446.466742441994</v>
+        <v>2446.466742441993</v>
       </c>
       <c r="T9" t="n">
         <v>2250.952611716526</v>
@@ -4917,7 +4917,7 @@
         <v>2022.837902004315</v>
       </c>
       <c r="V9" t="n">
-        <v>1787.685793772573</v>
+        <v>1787.685793772572</v>
       </c>
       <c r="W9" t="n">
         <v>1533.448437044371</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>706.481652294638</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C10" t="n">
-        <v>706.481652294638</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D10" t="n">
-        <v>635.7252457544423</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>487.8121521720493</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>487.8121521720493</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>319.5121343536906</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>167.9854638730941</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193401</v>
+        <v>56.44303377193408</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012949</v>
+        <v>192.429313701295</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763045</v>
+        <v>421.9713681763048</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438108</v>
+        <v>674.3804035438113</v>
       </c>
       <c r="N10" t="n">
-        <v>926.2223326340646</v>
+        <v>926.2223326340654</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431831</v>
+        <v>1142.822820431832</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.641274404486</v>
+        <v>1304.641274404487</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069305</v>
+        <v>1333.240904069306</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069305</v>
+        <v>1333.240904069306</v>
       </c>
       <c r="S10" t="n">
-        <v>1333.240904069305</v>
+        <v>1131.14778037677</v>
       </c>
       <c r="T10" t="n">
-        <v>1108.922696268408</v>
+        <v>906.8295725758728</v>
       </c>
       <c r="U10" t="n">
-        <v>1108.922696268408</v>
+        <v>906.8295725758728</v>
       </c>
       <c r="V10" t="n">
-        <v>1108.922696268408</v>
+        <v>652.145084369986</v>
       </c>
       <c r="W10" t="n">
-        <v>1108.922696268408</v>
+        <v>652.145084369986</v>
       </c>
       <c r="X10" t="n">
-        <v>1108.922696268408</v>
+        <v>424.1555334719686</v>
       </c>
       <c r="Y10" t="n">
-        <v>888.1301171248778</v>
+        <v>203.3629543284385</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1630.367550811545</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814044</v>
+        <v>1261.405033871133</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>903.1393352643828</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>903.1393352643828</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194425</v>
+        <v>492.1534304747752</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656964</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087832</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796039</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3836.426485325584</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3836.426485325584</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3836.426485325584</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>3483.657830055469</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.192071794389</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592077</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335452</v>
+        <v>470.7769964046658</v>
       </c>
       <c r="L12" t="n">
-        <v>773.170610991497</v>
+        <v>503.2284887929935</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948026</v>
+        <v>1011.185054749522</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649236</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
-        <v>2000.207762193667</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>184.1123407281362</v>
+        <v>492.7213934433783</v>
       </c>
       <c r="C13" t="n">
-        <v>184.1123407281361</v>
+        <v>323.7852105154714</v>
       </c>
       <c r="D13" t="n">
-        <v>184.1123407281361</v>
+        <v>323.7852105154714</v>
       </c>
       <c r="E13" t="n">
-        <v>184.1123407281361</v>
+        <v>323.7852105154714</v>
       </c>
       <c r="F13" t="n">
-        <v>184.1123407281362</v>
+        <v>245.0356491047325</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1949.247121276105</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1728.355788710545</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842771</v>
+        <v>1439.264095659996</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636884</v>
+        <v>1184.579607454109</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999233</v>
+        <v>895.1624374171481</v>
       </c>
       <c r="X13" t="n">
-        <v>586.553384701906</v>
+        <v>895.1624374171481</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.7608055583759</v>
+        <v>674.369858273618</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926982</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803625</v>
+        <v>430.7826650753339</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979694</v>
+        <v>282.8695714929408</v>
       </c>
       <c r="F16" t="n">
-        <v>175.903366400059</v>
+        <v>135.9796239950306</v>
       </c>
       <c r="G16" t="n">
-        <v>175.903366400059</v>
+        <v>135.9796239950306</v>
       </c>
       <c r="H16" t="n">
-        <v>175.903366400059</v>
+        <v>135.9796239950306</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>558.019349243338</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851654</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572585</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449228</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449228</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855602</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.2406881998</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993913</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956952</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058935</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154052</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,43 +6221,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038342</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,10 +6619,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647285</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>481.4479471244859</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420928</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949682</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647284</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244857</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420926</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949681</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098236</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819167</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395908</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="F46" t="n">
-        <v>302.4540366416804</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2579373565607</v>
+        <v>177.7213185270428</v>
       </c>
       <c r="H46" t="n">
-        <v>135.2579373565607</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703095</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>382.9664424574316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>32.56638778368483</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>37.16554713105243</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>48.1056061726357</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>185.2684807830938</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.38463668251704</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,13 +8307,13 @@
         <v>458.0981188384287</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>166.5626293952034</v>
+        <v>78.07077454018199</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>138.3195946523151</v>
       </c>
       <c r="L8" t="n">
-        <v>18.04903921787462</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>372.7766489231552</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>23.1786126444934</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>154.966096640707</v>
       </c>
       <c r="N9" t="n">
-        <v>202.4426365944175</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>43.92668002524852</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>143.428449461192</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615208</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>161.8865779886985</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>67.45898222629913</v>
       </c>
       <c r="G13" t="n">
-        <v>60.31407529283021</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.31459260779047</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.52450498097736</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.88808773888775e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.5956654067409</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0033420516646</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.94462611521872</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846231</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.506629716718275</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194147</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>73.62417772602046</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.62417772602038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772601992</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>32.8926045706001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194395</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405093</v>
       </c>
       <c r="I46" t="n">
-        <v>40.23897475306266</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>976780.1883136987</v>
+        <v>976780.1883136984</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166186</v>
+        <v>311350.4288166185</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682525</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="L2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682525</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682526</v>
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426434</v>
+        <v>144261.3327426439</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318973</v>
+        <v>446448.3338318967</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704285</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.22643683596759e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951795</v>
+        <v>77367.70679951782</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160336.9200875362</v>
+        <v>160336.920087536</v>
       </c>
       <c r="E4" t="n">
         <v>6792.005937060821</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707239</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707257</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.42449670735</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707323</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707343</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707314</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707337</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707279</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.42449670732</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>90290.24696804752</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738571</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-720214.551777759</v>
+        <v>-720214.5517777591</v>
       </c>
       <c r="C6" t="n">
-        <v>72432.86193322601</v>
+        <v>72432.86193322587</v>
       </c>
       <c r="D6" t="n">
-        <v>-45945.74760590662</v>
+        <v>-45945.74760590683</v>
       </c>
       <c r="E6" t="n">
-        <v>-227027.3960197252</v>
+        <v>-227248.5273336994</v>
       </c>
       <c r="F6" t="n">
-        <v>45709.0817772099</v>
+        <v>45674.34385177412</v>
       </c>
       <c r="G6" t="n">
-        <v>235017.3505476384</v>
+        <v>234982.6126222025</v>
       </c>
       <c r="H6" t="n">
-        <v>235017.350547638</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="I6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222023</v>
       </c>
       <c r="J6" t="n">
-        <v>62656.35814735752</v>
+        <v>62621.62022192178</v>
       </c>
       <c r="K6" t="n">
-        <v>235017.3505476384</v>
+        <v>234982.6126222024</v>
       </c>
       <c r="L6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222026</v>
       </c>
       <c r="M6" t="n">
-        <v>157649.6437481202</v>
+        <v>157614.9058226848</v>
       </c>
       <c r="N6" t="n">
-        <v>185177.7764156146</v>
+        <v>185143.0384901791</v>
       </c>
       <c r="O6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222025</v>
       </c>
       <c r="P6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222024</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936581</v>
+        <v>761.9242255936587</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490096</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.448125255593</v>
+        <v>168.4481252555936</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212927</v>
+        <v>440.3170116212922</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.4593297038489</v>
+        <v>310.4593297038485</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.761494245161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038489</v>
+        <v>310.4593297038483</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038489</v>
+        <v>310.4593297038485</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.8402319645172</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>290.5520206341506</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>28.56834806604525</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27552,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>131.4742512755639</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>148.4633886049242</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.46167630328517</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.0280087810561</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.1822302122825</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>67.8431012037442</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>139.2216844979418</v>
       </c>
       <c r="T8" t="n">
-        <v>7.159497244042996</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.67656574099991</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>78.56663054341861</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.6170176401751</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>150.0114037757904</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>114.1316988901464</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987067</v>
+        <v>115.5150762987066</v>
       </c>
       <c r="S10" t="n">
-        <v>200.0721924556109</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.728484105318785e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28618,10 +28618,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.473871435806598e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.118130629176109e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30694,16 +30694,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185558</v>
+        <v>3.06301196218556</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773285</v>
+        <v>31.36907125773288</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0867686721588</v>
+        <v>118.0867686721589</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255467</v>
+        <v>259.9693115255469</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848615</v>
+        <v>389.6266078848618</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225978</v>
+        <v>483.3662602225982</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051152</v>
+        <v>537.8380992051157</v>
       </c>
       <c r="N8" t="n">
-        <v>546.540881942675</v>
+        <v>546.5408819426754</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436923</v>
+        <v>516.0830567436927</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272363</v>
+        <v>440.4649489272366</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314659</v>
+        <v>330.7708330314661</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696387</v>
+        <v>192.4069251696389</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830348</v>
+        <v>69.79838508830352</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446729</v>
+        <v>13.4083348644673</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748446</v>
+        <v>0.2450409569748448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465604</v>
+        <v>1.638855881465606</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204939</v>
+        <v>15.8278975920494</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028507</v>
+        <v>56.42552048028511</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765377</v>
+        <v>154.8359409765378</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347331</v>
+        <v>264.6392850347333</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454155</v>
+        <v>355.8401772454158</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485436</v>
+        <v>415.2487029485439</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045126</v>
+        <v>426.2391005045129</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941431</v>
+        <v>389.9255043941434</v>
       </c>
       <c r="P9" t="n">
-        <v>312.9495937160065</v>
+        <v>312.9495937160067</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762059</v>
+        <v>209.1985156762061</v>
       </c>
       <c r="R9" t="n">
         <v>101.7528239387154</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178434</v>
+        <v>30.44102920178436</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609166</v>
+        <v>6.60573927660917</v>
       </c>
       <c r="U9" t="n">
         <v>0.1078194658858951</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283646</v>
+        <v>1.373961718283647</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164915</v>
+        <v>12.21576873164916</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31877603711182</v>
+        <v>41.31877603711186</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265373</v>
+        <v>97.13909348265381</v>
       </c>
       <c r="K10" t="n">
-        <v>159.629370542409</v>
+        <v>159.6293705424091</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255522</v>
+        <v>204.2706358255524</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214991</v>
+        <v>215.3747446214992</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806238</v>
+        <v>210.253614580624</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988557</v>
+        <v>194.2032435988559</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458692</v>
+        <v>166.1744245458693</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646424</v>
+        <v>115.0505580646425</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846281</v>
+        <v>61.77831507846286</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136134</v>
+        <v>23.94440558136136</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393756</v>
+        <v>5.870563705393761</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0749433664518353</v>
+        <v>0.07494336645183536</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
         <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>561.480683474775</v>
+        <v>171.3336650206093</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821482</v>
@@ -31853,7 +31853,7 @@
         <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>327.7187449943753</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383447</v>
@@ -31862,7 +31862,7 @@
         <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605175</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627655</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>395.1848490935915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>508.8976500257889</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>198.560797075695</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,13 +33020,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>463.4318227833011</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>198.560797075695</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,19 +33968,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>316.6133175811567</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,31 +34442,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,16 +34699,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>571.5517079376414</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
         <v>171.8879043605652</v>
@@ -34717,7 +34717,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>67.90388275499302</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>105.4562740637363</v>
       </c>
       <c r="L3" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>248.7689815793677</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>268.6656066160153</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.72213165382523</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
@@ -35027,13 +35027,13 @@
         <v>658.7614942451607</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>276.3501319480305</v>
+        <v>187.8582770930091</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>248.0200221709342</v>
+        <v>248.0200221709344</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6821694110457</v>
+        <v>307.8563514921963</v>
       </c>
       <c r="L8" t="n">
-        <v>265.6488844704852</v>
+        <v>247.599845252611</v>
       </c>
       <c r="M8" t="n">
-        <v>307.4918659778425</v>
+        <v>307.491865977843</v>
       </c>
       <c r="N8" t="n">
-        <v>317.1278183460841</v>
+        <v>317.1278183460844</v>
       </c>
       <c r="O8" t="n">
-        <v>658.7614942451607</v>
+        <v>285.984845322006</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2319531719667</v>
+        <v>531.0306613434498</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.4651431570164</v>
+        <v>320.7801338169213</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.53780722848919</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.99831430987098</v>
+        <v>154.0893496502799</v>
       </c>
       <c r="K9" t="n">
-        <v>126.7978460603741</v>
+        <v>391.263083072953</v>
       </c>
       <c r="L9" t="n">
-        <v>217.2857974655413</v>
+        <v>588.1261427690008</v>
       </c>
       <c r="M9" t="n">
-        <v>273.1146690265253</v>
+        <v>428.0807656672325</v>
       </c>
       <c r="N9" t="n">
-        <v>497.3400250155967</v>
+        <v>294.8973884211796</v>
       </c>
       <c r="O9" t="n">
-        <v>641.1915792264282</v>
+        <v>247.329259949699</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4379549416134</v>
+        <v>178.9751863016765</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.2940293260335</v>
+        <v>279.2940293260336</v>
       </c>
       <c r="R9" t="n">
-        <v>1.594989786072233</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.77991336598096</v>
+        <v>3.779913365981031</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165261</v>
+        <v>137.3598787165262</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858683</v>
+        <v>231.8606610858685</v>
       </c>
       <c r="M10" t="n">
-        <v>254.9586215833397</v>
+        <v>254.9586215833398</v>
       </c>
       <c r="N10" t="n">
-        <v>254.3857869598524</v>
+        <v>254.3857869598526</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128954</v>
+        <v>218.7883715128955</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107627</v>
+        <v>163.4529838107628</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294799</v>
+        <v>28.88851481294807</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
         <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949008</v>
+        <v>32.77928524073507</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601299</v>
@@ -35501,7 +35501,7 @@
         <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>185.1225005499309</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240144</v>
@@ -35510,7 +35510,7 @@
         <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655351</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>253.0508151715732</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>366.7636161037706</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36361,7 +36361,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
         <v>735.300110790295</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125056</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>320.8355783388566</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
         <v>735.300110790295</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125056</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>174.4792836591383</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37637,13 +37637,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010452</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>476.2000925419561</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
